--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrobert\Downloads\deik\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39004989-F390-4620-BC4C-686919ADC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2316BF-CE31-46D7-9F88-B1013A2B7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -419,7 +419,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -525,9 +525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -565,7 +565,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -671,7 +671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -813,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,22 +826,22 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="1.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="1.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="1.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.1796875" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -908,10 +908,10 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>38</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
@@ -1034,10 +1034,10 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
@@ -1048,10 +1048,10 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>50</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>54</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>60</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>62</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>64</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>66</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1186,12 +1186,12 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45568.39963472222</v>
+        <v>45575.677393981481</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -1200,7 +1200,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
@@ -1211,7 +1211,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1241,23 +1241,23 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="18">
         <v>2023</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1476,14 +1476,14 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>47</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1996,14 +1996,14 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>49</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="F25">
         <f>SUM(Táblázat3[2024.10.10])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <f>SUM(Táblázat3[2024.10.17])</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39004989-F390-4620-BC4C-686919ADC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA40E60-FE39-45F6-8623-5F796FA0F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -826,7 +826,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +908,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45568.39963472222</v>
+        <v>45575.533326041666</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1241,11 +1241,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>55</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="E25">
         <f>SUM(Táblázat3[2024.10.03])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <f>SUM(Táblázat3[2024.10.10])</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA40E60-FE39-45F6-8623-5F796FA0F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E34200-DD81-47B1-8603-C5F1C9D9E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -67,179 +67,179 @@
     <t>Aláírás</t>
   </si>
   <si>
+    <t>2024.09.12</t>
+  </si>
+  <si>
+    <t>2024.09.19</t>
+  </si>
+  <si>
+    <t>2023.09.26</t>
+  </si>
+  <si>
+    <t>2024.10.03</t>
+  </si>
+  <si>
+    <t>2024.10.10</t>
+  </si>
+  <si>
+    <t>2024.10.17</t>
+  </si>
+  <si>
+    <t>2024.10.31</t>
+  </si>
+  <si>
+    <t>2024.11.07</t>
+  </si>
+  <si>
+    <t>2024.11.14</t>
+  </si>
+  <si>
+    <t>2024.11.21</t>
+  </si>
+  <si>
+    <t>2024.11.28</t>
+  </si>
+  <si>
+    <t>2024.12.12</t>
+  </si>
+  <si>
+    <t>2024.12.05</t>
+  </si>
+  <si>
+    <t>Balla Csaba</t>
+  </si>
+  <si>
+    <t>QQLE8Q</t>
+  </si>
+  <si>
+    <t>Bartha Áron</t>
+  </si>
+  <si>
+    <t>SMHDWL</t>
+  </si>
+  <si>
+    <t>Batizi Máté</t>
+  </si>
+  <si>
+    <t>LXPU86</t>
+  </si>
+  <si>
+    <t>Gombár Zolta</t>
+  </si>
+  <si>
+    <t>JN5S0E</t>
+  </si>
+  <si>
+    <t>Ignát Péter</t>
+  </si>
+  <si>
+    <t>YLI3UD</t>
+  </si>
+  <si>
+    <t>Izay Melissza</t>
+  </si>
+  <si>
+    <t>N6UR30</t>
+  </si>
+  <si>
+    <t>Kerekes Bence</t>
+  </si>
+  <si>
+    <t>RH7T2D</t>
+  </si>
+  <si>
+    <t>Király Éva</t>
+  </si>
+  <si>
+    <t>Z6OAK3</t>
+  </si>
+  <si>
+    <t>Kóródi Ferenc Marcell</t>
+  </si>
+  <si>
+    <t>IYLLU3</t>
+  </si>
+  <si>
+    <t>Kovács Bence</t>
+  </si>
+  <si>
+    <t>FWE6ZU</t>
+  </si>
+  <si>
+    <t>Kozicz Gergő</t>
+  </si>
+  <si>
+    <t>HTIX4F</t>
+  </si>
+  <si>
+    <t>Kristóf Bence</t>
+  </si>
+  <si>
+    <t>CTXKVH</t>
+  </si>
+  <si>
+    <t>Lazar Dóra Csilla</t>
+  </si>
+  <si>
+    <t>LYTZS1</t>
+  </si>
+  <si>
+    <t>Lovas Gergő</t>
+  </si>
+  <si>
+    <t>IHFAKB</t>
+  </si>
+  <si>
+    <t>Mészáros Levente</t>
+  </si>
+  <si>
+    <t>GBMJOU</t>
+  </si>
+  <si>
+    <t>Surányi Anna Barbara</t>
+  </si>
+  <si>
+    <t>T7GHFQ</t>
+  </si>
+  <si>
+    <t>Szarvas Szilárd</t>
+  </si>
+  <si>
+    <t>DJLQV3</t>
+  </si>
+  <si>
+    <t>Szegedi Márton</t>
+  </si>
+  <si>
+    <t>BARNWU</t>
+  </si>
+  <si>
+    <t>Székely Ádám</t>
+  </si>
+  <si>
+    <t>MDWL2Z</t>
+  </si>
+  <si>
+    <t>Takács Zsanett</t>
+  </si>
+  <si>
+    <t>YXV3GJ</t>
+  </si>
+  <si>
+    <t>Thold Máté</t>
+  </si>
+  <si>
+    <t>AHDU02</t>
+  </si>
+  <si>
+    <t>Tómán Péter</t>
+  </si>
+  <si>
+    <t>CXEAKB</t>
+  </si>
+  <si>
     <t>BEVEZETÉS A TERMÉSZETES NYELVŰ SZÖVEGFELOLGOZÁSBA
-JELENLÉTI</t>
-  </si>
-  <si>
-    <t>2024.09.12</t>
-  </si>
-  <si>
-    <t>2024.09.19</t>
-  </si>
-  <si>
-    <t>2023.09.26</t>
-  </si>
-  <si>
-    <t>2024.10.03</t>
-  </si>
-  <si>
-    <t>2024.10.10</t>
-  </si>
-  <si>
-    <t>2024.10.17</t>
-  </si>
-  <si>
-    <t>2024.10.31</t>
-  </si>
-  <si>
-    <t>2024.11.07</t>
-  </si>
-  <si>
-    <t>2024.11.14</t>
-  </si>
-  <si>
-    <t>2024.11.21</t>
-  </si>
-  <si>
-    <t>2024.11.28</t>
-  </si>
-  <si>
-    <t>2024.12.12</t>
-  </si>
-  <si>
-    <t>2024.12.05</t>
-  </si>
-  <si>
-    <t>Balla Csaba</t>
-  </si>
-  <si>
-    <t>QQLE8Q</t>
-  </si>
-  <si>
-    <t>Bartha Áron</t>
-  </si>
-  <si>
-    <t>SMHDWL</t>
-  </si>
-  <si>
-    <t>Batizi Máté</t>
-  </si>
-  <si>
-    <t>LXPU86</t>
-  </si>
-  <si>
-    <t>Gombár Zolta</t>
-  </si>
-  <si>
-    <t>JN5S0E</t>
-  </si>
-  <si>
-    <t>Ignát Péter</t>
-  </si>
-  <si>
-    <t>YLI3UD</t>
-  </si>
-  <si>
-    <t>Izay Melissza</t>
-  </si>
-  <si>
-    <t>N6UR30</t>
-  </si>
-  <si>
-    <t>Kerekes Bence</t>
-  </si>
-  <si>
-    <t>RH7T2D</t>
-  </si>
-  <si>
-    <t>Király Éva</t>
-  </si>
-  <si>
-    <t>Z6OAK3</t>
-  </si>
-  <si>
-    <t>Kóródi Ferenc Marcell</t>
-  </si>
-  <si>
-    <t>IYLLU3</t>
-  </si>
-  <si>
-    <t>Kovács Bence</t>
-  </si>
-  <si>
-    <t>FWE6ZU</t>
-  </si>
-  <si>
-    <t>Kozicz Gergő</t>
-  </si>
-  <si>
-    <t>HTIX4F</t>
-  </si>
-  <si>
-    <t>Kristóf Bence</t>
-  </si>
-  <si>
-    <t>CTXKVH</t>
-  </si>
-  <si>
-    <t>Lazar Dóra Csilla</t>
-  </si>
-  <si>
-    <t>LYTZS1</t>
-  </si>
-  <si>
-    <t>Lovas Gergő</t>
-  </si>
-  <si>
-    <t>IHFAKB</t>
-  </si>
-  <si>
-    <t>Mészáros Levente</t>
-  </si>
-  <si>
-    <t>GBMJOU</t>
-  </si>
-  <si>
-    <t>Surányi Anna Barbara</t>
-  </si>
-  <si>
-    <t>T7GHFQ</t>
-  </si>
-  <si>
-    <t>Szarvas Szilárd</t>
-  </si>
-  <si>
-    <t>DJLQV3</t>
-  </si>
-  <si>
-    <t>Szegedi Márton</t>
-  </si>
-  <si>
-    <t>BARNWU</t>
-  </si>
-  <si>
-    <t>Székely Ádám</t>
-  </si>
-  <si>
-    <t>MDWL2Z</t>
-  </si>
-  <si>
-    <t>Takács Zsanett</t>
-  </si>
-  <si>
-    <t>YXV3GJ</t>
-  </si>
-  <si>
-    <t>Thold Máté</t>
-  </si>
-  <si>
-    <t>AHDU02</t>
-  </si>
-  <si>
-    <t>Tómán Péter</t>
-  </si>
-  <si>
-    <t>CXEAKB</t>
+JELENLÉTI - 1618</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -880,12 +880,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -894,12 +894,12 @@
       <c r="F4" s="6"/>
       <c r="G4" s="9">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -908,12 +908,12 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -927,7 +927,7 @@
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -950,12 +950,12 @@
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -978,12 +978,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="9">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -997,7 +997,7 @@
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
@@ -1034,12 +1034,12 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -1090,12 +1090,12 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -1186,7 +1186,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45575.533326041666</v>
+        <v>45599.441274421297</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1245,7 +1245,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1282,43 +1282,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>4</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1372,22 +1372,22 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1424,16 +1424,16 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1476,16 +1476,16 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1632,16 +1632,16 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1736,16 +1736,16 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1944,16 +1944,16 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2051,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2152,16 +2152,16 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2207,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C25">
         <f>SUM(Táblázat3[2024.09.19])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f>SUM(Táblázat3[2023.09.26])</f>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H25">
         <f>SUM(Táblázat3[2024.10.31])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <f>SUM(Táblázat3[2024.11.07])</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E34200-DD81-47B1-8603-C5F1C9D9E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934826AE-26C0-4CD4-9849-2325B1DB59A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -880,7 +880,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="9">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="9">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45599.441274421297</v>
+        <v>45607.495642476853</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1245,7 +1245,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="I25">
         <f>SUM(Táblázat3[2024.11.07])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <f>SUM(Táblázat3[2024.11.14])</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934826AE-26C0-4CD4-9849-2325B1DB59A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD225052-9EF4-4026-98D2-AD91F8EB98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -880,7 +880,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="9">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -908,7 +908,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="9">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="9">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="9">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1104,7 +1104,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="9">
         <f>VLOOKUP(A19,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="9">
         <f>VLOOKUP(A21,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45607.495642476853</v>
+        <v>45614.412889236111</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1245,7 +1245,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>26</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>30</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>34</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>50</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
         <v>56</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>60</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="J25">
         <f>SUM(Táblázat3[2024.11.14])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K25">
         <f>SUM(Táblázat3[2024.11.21])</f>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD225052-9EF4-4026-98D2-AD91F8EB98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC072F9-DF67-485E-9200-2EE1B6D43B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Név</t>
   </si>
@@ -240,6 +240,9 @@
   <si>
     <t>BEVEZETÉS A TERMÉSZETES NYELVŰ SZÖVEGFELOLGOZÁSBA
 JELENLÉTI - 1618</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -440,6 +443,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -468,13 +474,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:P25" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:P24" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q25" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:Q24" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P24">
     <sortCondition ref="A3:A24"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="2" totalsRowDxfId="0"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.09.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.09.12])</totalsRowFormula>
     </tableColumn>
@@ -514,11 +520,12 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.12.12" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.12.12])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
+    <tableColumn id="15" xr3:uid="{92DEC80A-8494-40D7-8A77-A80901F3BADF}" name="Mark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,8 +833,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +887,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -908,7 +915,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -978,7 +985,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="9">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1193,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45614.412889236111</v>
+        <v>45620.360932291667</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1241,11 +1248,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,6 +1262,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1276,6 +1284,7 @@
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1325,6 +1334,9 @@
       </c>
       <c r="P2" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1372,7 +1384,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1429,7 +1441,9 @@
       <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1463,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1476,7 +1490,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1723,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1736,7 +1750,7 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -2313,7 +2327,9 @@
       <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2513,7 +2529,7 @@
       </c>
       <c r="K25">
         <f>SUM(Táblázat3[2024.11.21])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <f>SUM(Táblázat3[2024.11.28])</f>
@@ -2529,12 +2545,12 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC072F9-DF67-485E-9200-2EE1B6D43B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E542DBF-5446-4264-A6F7-A54B260E86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
@@ -833,7 +833,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1193,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45620.360932291667</v>
+        <v>45624.47565266204</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1248,11 +1248,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2015,9 @@
       <c r="P15" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2223,7 +2225,9 @@
       <c r="P19" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2275,7 +2279,9 @@
       <c r="P20" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E542DBF-5446-4264-A6F7-A54B260E86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9036A4E-985D-4D59-A9F1-74132C8EA8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -887,7 +887,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="9">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="9">
         <f>VLOOKUP(A12,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1055,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="9">
         <f>VLOOKUP(A21,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9">
         <f>VLOOKUP(A23,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="9">
         <f>VLOOKUP(A24,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45624.47565266204</v>
+        <v>45625.586087268515</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1252,7 +1252,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>26</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="O12">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
         <v>42</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1958,12 +1958,14 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2000,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2010,13 +2012,13 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
       </c>
       <c r="Q15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2158,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2168,7 +2170,7 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" t="s">
         <v>54</v>
@@ -2226,7 +2228,7 @@
         <v>56</v>
       </c>
       <c r="Q19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2280,7 +2282,7 @@
         <v>58</v>
       </c>
       <c r="Q20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2328,7 +2330,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
         <v>60</v>
@@ -2424,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2434,7 +2436,7 @@
       </c>
       <c r="O23">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
         <v>64</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2486,7 +2488,7 @@
       </c>
       <c r="O24">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" t="s">
         <v>66</v>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="L25">
         <f>SUM(Táblázat3[2024.11.28])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M25">
         <f>SUM(Táblázat3[2024.12.05])</f>
@@ -2551,7 +2553,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
+++ b/materials/NLP-I/jelenlet/jelenlet_2024_cs1618.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-I\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9036A4E-985D-4D59-A9F1-74132C8EA8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95F2934-C35F-43B3-AED7-95B3D3E793DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="6390" yWindow="0" windowWidth="23355" windowHeight="15585" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Aláíró" sheetId="5" r:id="rId1"/>
     <sheet name="Számoló" sheetId="6" r:id="rId2"/>
+    <sheet name="Feladat" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>Név</t>
   </si>
@@ -243,6 +244,75 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szövegből minden helynevet kiemel és egy táblázatba gyűjt!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely automatikusan beállítja a szöveggenerálás hosszát!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely felismeri a szövegben lévő neveket és azok típusát (pl. személy, hely, szervezet)!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveget három kategóriába oszt nullás osztályozással, majd az osztályozott szövegeket lefordítja angolra!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely három különböző kategóriába osztályoz egy mondatot Zero-shot osztályozással!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely kérdéseket tesz fel egy generatív modellnek, és minden választ fájlba ment!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely ugyanannak a mondatnak három különböző hőmérséklet-értékkel (0.5, 0.8, 1.0) generált folytatását összehasonlítja és elemzi!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely kitalálja egy szövegről, hogy melyik kategóriába tartozik (pl. üzlet, oktatás, sport)!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy mondatban lévő &lt;mask&gt; szót két különböző módon tölti ki!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy hosszú szöveget összefoglal 50 szónál rövidebb formában!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely vár egy listát szövegekből, és mindegyiknek meghatározza a hangulatát!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely két szöveget összehasonlít érzelmi töltet alapján!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy mondatot először nullás osztályozással besorol, majd a legmegfelelőbb kategóriát lefordítja franciára!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely három kategóriába (pl. zene, tudomány, sport) sorolja be a szövegeket!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveget francia nyelvről angolra fordít!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy kérdést tesz fel egy generatív modellnek, és megjeleníti a választ!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely felismeri a szövegben lévő összes számadatot és listázza azokat!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely vár egy szöveget, és megmondja annak hangulatát!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy szöveg fordítása után új kategóriába sorolja a szöveget!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely egy adott kontextusból egy kérdésre válaszol!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely két különböző szövegfolytatást generál egy adott mondathoz!</t>
+  </si>
+  <si>
+    <t>Készíts egy programot, amely több nyelven generált szövegeket összehasonlít és elmenti a különbségeket!</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -915,7 +985,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -929,7 +999,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="9">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -943,7 +1013,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="9">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -957,7 +1027,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -985,7 +1055,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="9">
         <f>VLOOKUP(A10,Táblázat3[],15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1041,7 +1111,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1069,7 +1139,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="9">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,7 +1153,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9">
         <f>VLOOKUP(A17,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1125,7 +1195,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="9">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1223,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="9">
         <f>VLOOKUP(A22,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1263,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="15">
         <f ca="1">NOW()</f>
-        <v>45625.586087268515</v>
+        <v>45663.54900324074</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1248,11 +1318,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1459,9 @@
       <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1442,7 +1514,7 @@
         <v>26</v>
       </c>
       <c r="Q4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1483,19 +1555,21 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1535,19 +1609,21 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1587,19 +1663,21 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1639,19 +1717,21 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1703,7 +1783,9 @@
       <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1743,19 +1825,21 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1807,7 +1891,9 @@
       <c r="P11" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1859,7 +1945,9 @@
       <c r="P12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1911,7 +1999,9 @@
       <c r="P13" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1951,14 +2041,14 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
         <v>46</v>
@@ -2059,19 +2149,21 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2111,19 +2203,21 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2175,7 +2269,9 @@
       <c r="P18" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2269,14 +2365,14 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>58</v>
@@ -2336,7 +2432,7 @@
         <v>60</v>
       </c>
       <c r="Q21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2377,19 +2473,21 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
         <f>SUM(Táblázat3[[#This Row],[2024.09.12]:[2024.12.12]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2441,7 +2539,9 @@
       <c r="P23" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2493,7 +2593,9 @@
       <c r="P24" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -2545,7 +2647,7 @@
       </c>
       <c r="M25">
         <f>SUM(Táblázat3[2024.12.05])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <f>SUM(Táblázat3[2024.12.12])</f>
@@ -2553,7 +2655,7 @@
       </c>
       <c r="O25">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2567,4 +2669,198 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D5CA6-F1D5-42D2-9679-FA95C8127E65}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="142.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>